--- a/excel/assignments/Assignment15_Workbook.xlsx
+++ b/excel/assignments/Assignment15_Workbook.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="9225"/>
   </bookViews>
   <sheets>
-    <sheet name="2013 Sales Detailed View" sheetId="1" r:id="rId1"/>
+    <sheet name="2013 Verkaufszahlen (Detail)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
-    <t>Salesperson</t>
-  </si>
-  <si>
     <t>Davis, William</t>
   </si>
   <si>
@@ -34,15 +31,6 @@
     <t>Dumlao, Richard</t>
   </si>
   <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
     <t>Allenson, Carol</t>
   </si>
   <si>
@@ -91,24 +79,37 @@
     <t>Moss, Pete</t>
   </si>
   <si>
-    <t>Aug.</t>
-  </si>
-  <si>
-    <t>Sept.</t>
-  </si>
-  <si>
-    <t>Oct.</t>
-  </si>
-  <si>
-    <t>Westbrook Parker Sales Data</t>
+    <t>Verkäufer</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Juni</t>
+  </si>
+  <si>
+    <t>Juli</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Oktober</t>
+  </si>
+  <si>
+    <t>Westbrook Parker Verkaufszahlen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -161,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -181,6 +182,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -198,7 +203,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -212,7 +217,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -226,7 +231,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -240,7 +245,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -254,7 +259,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -268,7 +273,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -410,13 +415,13 @@
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Salesperson" dataDxfId="6"/>
-    <tableColumn id="4" name="May" dataDxfId="5"/>
-    <tableColumn id="5" name="June" dataDxfId="4"/>
-    <tableColumn id="3" name="July" dataDxfId="3"/>
-    <tableColumn id="6" name="Aug." dataDxfId="2"/>
-    <tableColumn id="7" name="Sept." dataDxfId="1"/>
-    <tableColumn id="8" name="Oct." dataDxfId="0"/>
+    <tableColumn id="1" name="Verkäufer" dataDxfId="6"/>
+    <tableColumn id="4" name="Mai" dataDxfId="5"/>
+    <tableColumn id="5" name="Juni" dataDxfId="4"/>
+    <tableColumn id="3" name="Juli" dataDxfId="3"/>
+    <tableColumn id="6" name="August" dataDxfId="2"/>
+    <tableColumn id="7" name="September" dataDxfId="1"/>
+    <tableColumn id="8" name="Oktober" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -712,7 +717,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,16 +747,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>25</v>
@@ -765,485 +770,485 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
         <v>3947</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="10">
         <v>557</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="10">
         <v>3863</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="10">
         <v>1117</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="10">
         <v>8237</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="10">
         <v>8690</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
         <v>4411</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="10">
         <v>1042</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="10">
         <v>9355</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="10">
         <v>1100</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="10">
         <v>10185</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="10">
         <v>18749</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
         <v>2521</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="10">
         <v>3072</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="10">
         <v>6702</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="10">
         <v>2116</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="10">
         <v>13452</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="10">
         <v>8046</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
         <v>4752</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="10">
         <v>3755</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="10">
         <v>4415</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="10">
         <v>1089</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="10">
         <v>4404</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="10">
         <v>20114</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9">
         <v>4964</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="10">
         <v>3152</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="10">
         <v>11601</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="10">
         <v>1122</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="10">
         <v>3170</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="10">
         <v>10733</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9">
         <v>2327</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="10">
         <v>4056</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="10">
         <v>3726</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="10">
         <v>1135</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="10">
         <v>8817</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="10">
         <v>18524</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9">
         <v>3967</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="10">
         <v>4906</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="10">
         <v>9007</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="10">
         <v>2113</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="10">
         <v>13090</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="10">
         <v>13953</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9">
         <v>4670</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="10">
         <v>521</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="10">
         <v>4505</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="10">
         <v>1024</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="10">
         <v>3528</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="10">
         <v>15275</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9">
         <v>3379</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="10">
         <v>3428</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="10">
         <v>3973</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="10">
         <v>1716</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="10">
         <v>4839</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="10">
         <v>13085</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9">
         <v>5363</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="10">
         <v>1562</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="10">
         <v>2945</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="10">
         <v>1176</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="10">
         <v>9642</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="10">
         <v>13714</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9">
         <v>3275</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="10">
         <v>2779</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="10">
         <v>7549</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="10">
         <v>1101</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="10">
         <v>5850</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="10">
         <v>15065</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
         <v>3860</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="10">
         <v>3470</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="10">
         <v>3862</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="10">
         <v>1040</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="10">
         <v>10024</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="10">
         <v>18389</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9">
         <v>4685</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="10">
         <v>1913</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="10">
         <v>4596</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="10">
         <v>1126</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="10">
         <v>5503</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="10">
         <v>10686</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="B16" s="9">
         <v>4052</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="10">
         <v>2883</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="10">
         <v>2142</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="10">
         <v>2012</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="10">
         <v>13547</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="10">
         <v>21983</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9">
         <v>5541</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="10">
         <v>4931</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="10">
         <v>8283</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="10">
         <v>1054</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="10">
         <v>9543</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="10">
         <v>11967</v>
       </c>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9">
         <v>5667</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="10">
         <v>4798</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="10">
         <v>8420</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="10">
         <v>1389</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="10">
         <v>10468</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="10">
         <v>12677</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9">
         <v>4269</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="10">
         <v>4459</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="10">
         <v>2248</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="10">
         <v>1058</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="10">
         <v>6267</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="10">
         <v>14982</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9">
         <v>3502</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="10">
         <v>4172</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="10">
         <v>11074</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="10">
         <v>1282</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="10">
         <v>2365</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="10">
         <v>9380</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9">
         <v>5853</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="10">
         <v>2011</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="10">
         <v>3807</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="10">
         <v>1348</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="10">
         <v>11110</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="10">
         <v>18047</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="9">
         <v>2586</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="10">
         <v>2398</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="10">
         <v>2453</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="10">
         <v>1020</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="10">
         <v>4612</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="10">
         <v>20525</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="9">
         <v>5714</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="10">
         <v>4960</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="10">
         <v>11507</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="10">
         <v>1010</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="10">
         <v>6599</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="10">
         <v>11626</v>
       </c>
     </row>
